--- a/SchedulingData/static8/pso/scheduling1_5.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_5.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>52.5</v>
+        <v>48.42</v>
       </c>
       <c r="E2" t="n">
-        <v>27.44</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>46.52</v>
+        <v>31.64</v>
       </c>
       <c r="E3" t="n">
-        <v>26.048</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="4">
@@ -504,112 +504,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>96.78</v>
+        <v>87.7</v>
       </c>
       <c r="E4" t="n">
-        <v>25.952</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46.52</v>
+        <v>48.42</v>
       </c>
       <c r="D5" t="n">
-        <v>99.56</v>
+        <v>103.94</v>
       </c>
       <c r="E5" t="n">
-        <v>23.344</v>
+        <v>22.916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>108.02</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>24.008</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>108.02</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>168.1</v>
+        <v>151.14</v>
       </c>
       <c r="E7" t="n">
-        <v>19.64</v>
+        <v>22.136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>42.88</v>
+        <v>69.98</v>
       </c>
       <c r="E8" t="n">
-        <v>26.412</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>168.1</v>
+        <v>151.14</v>
       </c>
       <c r="D9" t="n">
-        <v>233.84</v>
+        <v>210.4</v>
       </c>
       <c r="E9" t="n">
-        <v>17.176</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="10">
@@ -618,93 +618,93 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>69.98</v>
       </c>
       <c r="D10" t="n">
-        <v>65.95999999999999</v>
+        <v>122.58</v>
       </c>
       <c r="E10" t="n">
-        <v>26.064</v>
+        <v>22.552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>233.84</v>
+        <v>210.4</v>
       </c>
       <c r="D11" t="n">
-        <v>282.34</v>
+        <v>259.46</v>
       </c>
       <c r="E11" t="n">
-        <v>14.456</v>
+        <v>15.064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42.88</v>
+        <v>122.58</v>
       </c>
       <c r="D12" t="n">
-        <v>79.2</v>
+        <v>172.72</v>
       </c>
       <c r="E12" t="n">
-        <v>23.42</v>
+        <v>19.648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>96.78</v>
+        <v>31.64</v>
       </c>
       <c r="D13" t="n">
-        <v>148.58</v>
+        <v>115.42</v>
       </c>
       <c r="E13" t="n">
-        <v>22.392</v>
+        <v>24.728</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>282.34</v>
+        <v>259.46</v>
       </c>
       <c r="D14" t="n">
-        <v>346.22</v>
+        <v>315.86</v>
       </c>
       <c r="E14" t="n">
-        <v>11.648</v>
+        <v>11.044</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>148.58</v>
+        <v>87.7</v>
       </c>
       <c r="D15" t="n">
-        <v>216.68</v>
+        <v>157.1</v>
       </c>
       <c r="E15" t="n">
-        <v>18.192</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +732,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>65.95999999999999</v>
+        <v>172.72</v>
       </c>
       <c r="D16" t="n">
-        <v>132.6</v>
+        <v>220.02</v>
       </c>
       <c r="E16" t="n">
-        <v>21.02</v>
+        <v>16.048</v>
       </c>
     </row>
     <row r="17">
@@ -751,169 +751,169 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>346.22</v>
+        <v>103.94</v>
       </c>
       <c r="D17" t="n">
-        <v>400.44</v>
+        <v>150.76</v>
       </c>
       <c r="E17" t="n">
-        <v>8.336</v>
+        <v>19.364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>150.76</v>
       </c>
       <c r="D18" t="n">
-        <v>70.5</v>
+        <v>196.48</v>
       </c>
       <c r="E18" t="n">
-        <v>25.62</v>
+        <v>15.932</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>79.2</v>
+        <v>220.02</v>
       </c>
       <c r="D19" t="n">
-        <v>166.3</v>
+        <v>295.92</v>
       </c>
       <c r="E19" t="n">
-        <v>17.82</v>
+        <v>11.068</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>132.6</v>
+        <v>115.42</v>
       </c>
       <c r="D20" t="n">
-        <v>191.6</v>
+        <v>169.64</v>
       </c>
       <c r="E20" t="n">
-        <v>17.72</v>
+        <v>21.416</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>99.56</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>153.72</v>
+        <v>51.1</v>
       </c>
       <c r="E21" t="n">
-        <v>19.548</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>166.3</v>
+        <v>295.92</v>
       </c>
       <c r="D22" t="n">
-        <v>224.08</v>
+        <v>344.26</v>
       </c>
       <c r="E22" t="n">
-        <v>13.172</v>
+        <v>8.364000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>191.6</v>
+        <v>196.48</v>
       </c>
       <c r="D23" t="n">
-        <v>243.8</v>
+        <v>256.9</v>
       </c>
       <c r="E23" t="n">
-        <v>13.64</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>70.5</v>
+        <v>51.1</v>
       </c>
       <c r="D24" t="n">
-        <v>123.22</v>
+        <v>110.98</v>
       </c>
       <c r="E24" t="n">
-        <v>21.968</v>
+        <v>21.712</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>153.72</v>
+        <v>157.1</v>
       </c>
       <c r="D25" t="n">
-        <v>210.36</v>
+        <v>209.2</v>
       </c>
       <c r="E25" t="n">
-        <v>16.524</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>216.68</v>
+        <v>209.2</v>
       </c>
       <c r="D26" t="n">
-        <v>281.98</v>
+        <v>270.34</v>
       </c>
       <c r="E26" t="n">
-        <v>13.772</v>
+        <v>12.476</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>243.8</v>
+        <v>344.26</v>
       </c>
       <c r="D27" t="n">
-        <v>314.46</v>
+        <v>404.66</v>
       </c>
       <c r="E27" t="n">
-        <v>9.704000000000001</v>
+        <v>3.944</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>123.22</v>
+        <v>256.9</v>
       </c>
       <c r="D28" t="n">
-        <v>175.82</v>
+        <v>318.5</v>
       </c>
       <c r="E28" t="n">
-        <v>18.328</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="29">
@@ -979,74 +979,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>314.46</v>
+        <v>404.66</v>
       </c>
       <c r="D29" t="n">
-        <v>375.76</v>
+        <v>466.26</v>
       </c>
       <c r="E29" t="n">
-        <v>6.184</v>
+        <v>1.384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>400.44</v>
+        <v>466.26</v>
       </c>
       <c r="D30" t="n">
-        <v>457.44</v>
+        <v>535.39</v>
       </c>
       <c r="E30" t="n">
-        <v>4.256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>375.76</v>
+        <v>315.86</v>
       </c>
       <c r="D31" t="n">
-        <v>446.12</v>
+        <v>360.16</v>
       </c>
       <c r="E31" t="n">
-        <v>2.268</v>
+        <v>7.744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>175.82</v>
+        <v>535.39</v>
       </c>
       <c r="D32" t="n">
-        <v>256.22</v>
+        <v>621.49</v>
       </c>
       <c r="E32" t="n">
-        <v>14.408</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="33">
@@ -1055,169 +1055,169 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>224.08</v>
+        <v>110.98</v>
       </c>
       <c r="D33" t="n">
-        <v>281.18</v>
+        <v>163.08</v>
       </c>
       <c r="E33" t="n">
-        <v>9.571999999999999</v>
+        <v>17.632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>281.98</v>
+        <v>169.64</v>
       </c>
       <c r="D34" t="n">
-        <v>346.5</v>
+        <v>241.22</v>
       </c>
       <c r="E34" t="n">
-        <v>10.94</v>
+        <v>17.368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>210.36</v>
+        <v>163.08</v>
       </c>
       <c r="D35" t="n">
-        <v>296.56</v>
+        <v>209.2</v>
       </c>
       <c r="E35" t="n">
-        <v>11.004</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>446.12</v>
+        <v>318.5</v>
       </c>
       <c r="D36" t="n">
-        <v>538.1799999999999</v>
+        <v>378.5</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>538.1799999999999</v>
+        <v>378.5</v>
       </c>
       <c r="D37" t="n">
-        <v>622.88</v>
+        <v>433.64</v>
       </c>
       <c r="E37" t="n">
-        <v>27.16</v>
+        <v>1.656</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>296.56</v>
+        <v>433.64</v>
       </c>
       <c r="D38" t="n">
-        <v>371.16</v>
+        <v>536.73</v>
       </c>
       <c r="E38" t="n">
-        <v>5.664</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>281.18</v>
+        <v>241.22</v>
       </c>
       <c r="D39" t="n">
-        <v>325.34</v>
+        <v>308.8</v>
       </c>
       <c r="E39" t="n">
-        <v>6.296</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>371.16</v>
+        <v>621.49</v>
       </c>
       <c r="D40" t="n">
-        <v>432.68</v>
+        <v>678.5700000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>2.112</v>
+        <v>22.432</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>346.5</v>
+        <v>678.5700000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>417.6</v>
+        <v>777.27</v>
       </c>
       <c r="E41" t="n">
-        <v>5.96</v>
+        <v>18.652</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>325.34</v>
+        <v>209.2</v>
       </c>
       <c r="D42" t="n">
-        <v>405.04</v>
+        <v>275.12</v>
       </c>
       <c r="E42" t="n">
-        <v>2.396</v>
+        <v>10.688</v>
       </c>
     </row>
     <row r="43">
@@ -1245,131 +1245,131 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>622.88</v>
+        <v>777.27</v>
       </c>
       <c r="D43" t="n">
-        <v>701.38</v>
+        <v>830.3099999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>23.38</v>
+        <v>15.948</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>457.44</v>
+        <v>308.8</v>
       </c>
       <c r="D44" t="n">
-        <v>532.96</v>
+        <v>372</v>
       </c>
       <c r="E44" t="n">
-        <v>0.824</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>532.96</v>
+        <v>360.16</v>
       </c>
       <c r="D45" t="n">
-        <v>627.91</v>
+        <v>414.86</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>4.904</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>701.38</v>
+        <v>372</v>
       </c>
       <c r="D46" t="n">
-        <v>747.22</v>
+        <v>435.48</v>
       </c>
       <c r="E46" t="n">
-        <v>20.416</v>
+        <v>5.272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>747.22</v>
+        <v>270.34</v>
       </c>
       <c r="D47" t="n">
-        <v>806.5</v>
+        <v>329.54</v>
       </c>
       <c r="E47" t="n">
-        <v>17.608</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>417.6</v>
+        <v>275.12</v>
       </c>
       <c r="D48" t="n">
-        <v>468.94</v>
+        <v>314.6</v>
       </c>
       <c r="E48" t="n">
-        <v>1.956</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>468.94</v>
+        <v>414.86</v>
       </c>
       <c r="D49" t="n">
-        <v>546.73</v>
+        <v>494.7</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="50">
@@ -1378,74 +1378,74 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>256.22</v>
+        <v>494.7</v>
       </c>
       <c r="D50" t="n">
-        <v>310.62</v>
+        <v>589.12</v>
       </c>
       <c r="E50" t="n">
-        <v>10.608</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>432.68</v>
+        <v>536.73</v>
       </c>
       <c r="D51" t="n">
-        <v>515.0599999999999</v>
+        <v>582.65</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>515.0599999999999</v>
+        <v>329.54</v>
       </c>
       <c r="D52" t="n">
-        <v>568.8</v>
+        <v>395</v>
       </c>
       <c r="E52" t="n">
-        <v>27.296</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>546.73</v>
+        <v>435.48</v>
       </c>
       <c r="D53" t="n">
-        <v>638.83</v>
+        <v>496.82</v>
       </c>
       <c r="E53" t="n">
-        <v>25.92</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="54">
@@ -1454,36 +1454,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>568.8</v>
+        <v>496.82</v>
       </c>
       <c r="D54" t="n">
-        <v>653.2</v>
+        <v>595.78</v>
       </c>
       <c r="E54" t="n">
-        <v>23.456</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>653.2</v>
+        <v>314.6</v>
       </c>
       <c r="D55" t="n">
-        <v>694.4</v>
+        <v>394.86</v>
       </c>
       <c r="E55" t="n">
-        <v>19.976</v>
+        <v>3.944</v>
       </c>
     </row>
     <row r="56">
@@ -1492,14 +1492,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>405.04</v>
+        <v>394.86</v>
       </c>
       <c r="D56" t="n">
-        <v>467.25</v>
+        <v>483.47</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1511,36 +1511,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>467.25</v>
+        <v>483.47</v>
       </c>
       <c r="D57" t="n">
-        <v>536.13</v>
+        <v>543.87</v>
       </c>
       <c r="E57" t="n">
-        <v>26.752</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>310.62</v>
+        <v>395</v>
       </c>
       <c r="D58" t="n">
-        <v>392.5</v>
+        <v>451.4</v>
       </c>
       <c r="E58" t="n">
-        <v>6.52</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="59">
@@ -1549,93 +1549,93 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>638.83</v>
+        <v>451.4</v>
       </c>
       <c r="D59" t="n">
-        <v>736.17</v>
+        <v>525.76</v>
       </c>
       <c r="E59" t="n">
-        <v>21.776</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>627.91</v>
+        <v>595.78</v>
       </c>
       <c r="D60" t="n">
-        <v>709.45</v>
+        <v>665.74</v>
       </c>
       <c r="E60" t="n">
-        <v>25.996</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>392.5</v>
+        <v>582.65</v>
       </c>
       <c r="D61" t="n">
-        <v>486.58</v>
+        <v>623.6900000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>2.712</v>
+        <v>24.124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>536.13</v>
+        <v>623.6900000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>590.27</v>
+        <v>705.29</v>
       </c>
       <c r="E62" t="n">
-        <v>22.968</v>
+        <v>18.604</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>486.58</v>
+        <v>543.87</v>
       </c>
       <c r="D63" t="n">
-        <v>563.0599999999999</v>
+        <v>608.29</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>21.828</v>
       </c>
     </row>
     <row r="64">
@@ -1644,112 +1644,112 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>563.0599999999999</v>
+        <v>589.12</v>
       </c>
       <c r="D64" t="n">
-        <v>634.76</v>
+        <v>657.36</v>
       </c>
       <c r="E64" t="n">
-        <v>25.98</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>590.27</v>
+        <v>657.36</v>
       </c>
       <c r="D65" t="n">
-        <v>645.61</v>
+        <v>713.6</v>
       </c>
       <c r="E65" t="n">
-        <v>20.064</v>
+        <v>22.832</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>694.4</v>
+        <v>705.29</v>
       </c>
       <c r="D66" t="n">
-        <v>739.26</v>
+        <v>760.49</v>
       </c>
       <c r="E66" t="n">
-        <v>17.12</v>
+        <v>14.704</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>736.17</v>
+        <v>608.29</v>
       </c>
       <c r="D67" t="n">
-        <v>821.21</v>
+        <v>680.03</v>
       </c>
       <c r="E67" t="n">
-        <v>18.872</v>
+        <v>16.784</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>709.45</v>
+        <v>713.6</v>
       </c>
       <c r="D68" t="n">
-        <v>779.49</v>
+        <v>786.5</v>
       </c>
       <c r="E68" t="n">
-        <v>22.132</v>
+        <v>18.632</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>739.26</v>
+        <v>760.49</v>
       </c>
       <c r="D69" t="n">
-        <v>804.38</v>
+        <v>798.99</v>
       </c>
       <c r="E69" t="n">
-        <v>14.208</v>
+        <v>11.984</v>
       </c>
     </row>
     <row r="70">
@@ -1758,36 +1758,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>645.61</v>
+        <v>680.03</v>
       </c>
       <c r="D70" t="n">
-        <v>743.51</v>
+        <v>737.11</v>
       </c>
       <c r="E70" t="n">
-        <v>15.864</v>
+        <v>13.196</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>743.51</v>
+        <v>665.74</v>
       </c>
       <c r="D71" t="n">
-        <v>804.23</v>
+        <v>726.1</v>
       </c>
       <c r="E71" t="n">
-        <v>12.432</v>
+        <v>23.228</v>
       </c>
     </row>
   </sheetData>
